--- a/Project/Phase 1/Sprint 1/Joao_Amorim_57409/data_collected_metrics.xlsx
+++ b/Project/Phase 1/Sprint 1/Joao_Amorim_57409/data_collected_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\ES\ESProject\Project\Phase 1\Sprint 1\Joao_Amorim_57409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11624CA9-EBF6-479E-AA27-E87224FF994E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEE1C6C-2940-4CD9-8298-28BA3B6C1430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>0.0</t>
   </si>
@@ -82,6 +82,39 @@
   </si>
   <si>
     <t>NCLOCt</t>
+  </si>
+  <si>
+    <t>Legenda:</t>
+  </si>
+  <si>
+    <t>Lines of Groovy</t>
+  </si>
+  <si>
+    <t>Lines of HTML</t>
+  </si>
+  <si>
+    <t>Lines of XML</t>
+  </si>
+  <si>
+    <t>Lines of Java</t>
+  </si>
+  <si>
+    <t>Lines of Kotlin</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>Lines of product code</t>
+  </si>
+  <si>
+    <t>Lines of test code</t>
+  </si>
+  <si>
+    <t>Non-comment lines of code</t>
+  </si>
+  <si>
+    <t>Non-comment lines of code(product)</t>
   </si>
 </sst>
 </file>
@@ -97,7 +130,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -122,6 +155,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -135,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -144,6 +183,10 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -424,20 +467,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C1" t="s">
@@ -474,7 +517,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
@@ -511,6 +554,134 @@
       <c r="M2" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="O2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q5" s="3"/>
+      <c r="R5" s="3"/>
+      <c r="S5" s="3"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q7" s="3"/>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="3"/>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q9" s="3"/>
+      <c r="R9" s="3"/>
+      <c r="S9" s="3"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="3"/>
+      <c r="S12" s="3"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
+      <c r="S13" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project/Phase 1/Sprint 1/Joao_Amorim_57409/data_collected_metrics.xlsx
+++ b/Project/Phase 1/Sprint 1/Joao_Amorim_57409/data_collected_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\ES\ESProject\Project\Phase 1\Sprint 1\Joao_Amorim_57409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CEE1C6C-2940-4CD9-8298-28BA3B6C1430}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4244F8B4-4A20-4889-BEF2-D75F0574450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -469,7 +469,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="P2" sqref="P2:S2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -557,10 +559,10 @@
       <c r="O2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O3" s="3" t="s">

--- a/Project/Phase 1/Sprint 1/Joao_Amorim_57409/data_collected_metrics.xlsx
+++ b/Project/Phase 1/Sprint 1/Joao_Amorim_57409/data_collected_metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GL704G\Desktop\ES\ESProject\Project\Phase 1\Sprint 1\Joao_Amorim_57409\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4244F8B4-4A20-4889-BEF2-D75F0574450D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464AFEC8-95A0-4197-8375-5173A93C4804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="390" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,25 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>516.0</t>
-  </si>
-  <si>
-    <t>78.0</t>
-  </si>
-  <si>
-    <t>12319.0</t>
-  </si>
-  <si>
-    <t>99098.0</t>
-  </si>
-  <si>
-    <t>87252.0</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
   <si>
     <t>ganttproject</t>
   </si>
@@ -115,6 +97,15 @@
   </si>
   <si>
     <t>Non-comment lines of code(product)</t>
+  </si>
+  <si>
+    <t>CLOC</t>
+  </si>
+  <si>
+    <t>JLOC</t>
+  </si>
+  <si>
+    <t>Coment lines of code</t>
   </si>
 </sst>
 </file>
@@ -467,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:S2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,81 +474,87 @@
     <row r="1" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5"/>
       <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
+      <c r="C2" s="1">
+        <v>1509</v>
+      </c>
+      <c r="D2" s="1">
+        <v>186</v>
+      </c>
+      <c r="E2" s="1">
+        <v>501</v>
+      </c>
+      <c r="F2" s="1">
+        <v>78</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5459</v>
+      </c>
+      <c r="H2" s="1">
+        <v>191</v>
+      </c>
+      <c r="I2" s="1">
+        <v>12319</v>
+      </c>
+      <c r="J2" s="1">
+        <v>104504</v>
+      </c>
+      <c r="K2" s="1">
+        <v>28915</v>
+      </c>
+      <c r="L2" s="1">
+        <v>91811</v>
+      </c>
+      <c r="M2" s="1">
+        <v>25450</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4958</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -566,10 +563,10 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O3" s="3" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="Q3" s="3"/>
       <c r="R3" s="3"/>
@@ -577,10 +574,10 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O4" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="Q4" s="3"/>
       <c r="R4" s="3"/>
@@ -588,10 +585,10 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O5" s="3" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="3"/>
       <c r="R5" s="3"/>
@@ -599,10 +596,10 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O6" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
@@ -610,10 +607,10 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O7" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="Q7" s="3"/>
       <c r="R7" s="3"/>
@@ -621,10 +618,10 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O8" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3"/>
@@ -632,10 +629,10 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O9" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P9" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3"/>
@@ -643,10 +640,10 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O10" s="3" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="P10" s="3" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3"/>
@@ -654,10 +651,10 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O11" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P11" s="3" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
@@ -665,10 +662,10 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O12" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="P12" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3"/>
@@ -676,14 +673,25 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O13" s="3" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="3"/>
       <c r="R13" s="3"/>
       <c r="S13" s="3"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="3"/>
+      <c r="S14" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
